--- a/Quikok/test_folder/批次匯入課程.xlsx
+++ b/Quikok/test_folder/批次匯入課程.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st350\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st350\Desktop\QUIKOK\Quikok\test_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23AEAAA-1D73-4BF8-9D2F-C35BEE2F15F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F62DC4-630C-4F6E-BAF4-0D321602C16B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="210" windowWidth="18315" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="1245" windowWidth="18315" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
   <si>
     <t>lesson_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,21 @@
   </si>
   <si>
     <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>little_title</t>
+  </si>
+  <si>
+    <t>big_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是小標題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是大標題</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,364 +517,417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>500</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>42</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>600</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>700</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>800</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>36</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>900</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>1000</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>34</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>36</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>38</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>1100</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>34</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>36</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>1200</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>34</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>36</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10">
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>1300</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>32</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>36</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Quikok/test_folder/批次匯入課程.xlsx
+++ b/Quikok/test_folder/批次匯入課程.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st350\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\edony\Desktop\quikok project\QUIKOK\Quikok\test_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23AEAAA-1D73-4BF8-9D2F-C35BEE2F15F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B8FF63-004E-4E6C-8794-FC0C69926F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="210" windowWidth="18315" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="375" windowWidth="10560" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>lesson_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,10 @@
   </si>
   <si>
     <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼稚園</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,7 +643,7 @@
         <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">

--- a/Quikok/test_folder/批次匯入課程.xlsx
+++ b/Quikok/test_folder/批次匯入課程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\edony\Desktop\quikok project\QUIKOK\Quikok\test_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB572067-2AEE-4449-8E65-B6D073BF751A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830678DC-C891-4F36-8DBD-BB2D57E8DD15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首先考試沒一百分罰寫一百遍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回家作業兩百題</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +177,10 @@
   </si>
   <si>
     <t>幼稚園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考試沒一百分罰寫一百遍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,12 +509,14 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -599,19 +601,19 @@
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
         <v>42</v>
-      </c>
-      <c r="P2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -640,10 +642,10 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -672,7 +674,7 @@
         <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -701,10 +703,10 @@
         <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -730,10 +732,10 @@
         <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -762,13 +764,13 @@
         <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -797,10 +799,10 @@
         <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -829,10 +831,10 @@
         <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -861,10 +863,10 @@
         <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
